--- a/Experiments/Experiments.xlsx
+++ b/Experiments/Experiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ML experiments</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Result without same domain: </t>
+  </si>
+  <si>
+    <t>Distance</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,12 +446,12 @@
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1</v>
       </c>
@@ -461,36 +464,42 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G5">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>52</v>

--- a/Experiments/Experiments.xlsx
+++ b/Experiments/Experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="20800" windowHeight="11720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="7000" windowWidth="20800" windowHeight="11720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,6 +504,9 @@
       <c r="F6">
         <v>52</v>
       </c>
+      <c r="G6">
+        <v>6.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiments/Experiments.xlsx
+++ b/Experiments/Experiments.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="7000" windowWidth="20800" windowHeight="11720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1500" yWindow="480" windowWidth="20800" windowHeight="11720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Same domainEx" sheetId="2" r:id="rId2"/>
+    <sheet name="Distance experiment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>ML experiments</t>
   </si>
@@ -61,6 +62,39 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>Results with u23_1</t>
+  </si>
+  <si>
+    <t>Results with u23_1_training_data</t>
+  </si>
+  <si>
+    <t>Distance (beta) experiment</t>
+  </si>
+  <si>
+    <t>Result with beta = 1,1</t>
+  </si>
+  <si>
+    <t>Result with beta = 1,5</t>
+  </si>
+  <si>
+    <t>Result with beta = 2</t>
+  </si>
+  <si>
+    <t>Result with beta = 1</t>
+  </si>
+  <si>
+    <t>Same domain</t>
+  </si>
+  <si>
+    <t>Not same domain</t>
+  </si>
+  <si>
+    <t>Result with beta = 1,3</t>
+  </si>
+  <si>
+    <t>Result with beta = 1,2</t>
   </si>
 </sst>
 </file>
@@ -434,10 +468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +486,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -502,10 +539,333 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>6.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>53</v>
+      </c>
+      <c r="G5">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>53</v>
+      </c>
+      <c r="G18">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/Experiments.xlsx
+++ b/Experiments/Experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="480" windowWidth="20800" windowHeight="11720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11200" yWindow="500" windowWidth="23820" windowHeight="15620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>ML experiments</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Result with beta = 1,2</t>
+  </si>
+  <si>
+    <t>Hit</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,128 +483,92 @@
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>53</v>
-      </c>
-      <c r="G5">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>53</v>
-      </c>
-      <c r="G6">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>53</v>
-      </c>
-      <c r="G10">
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>53</v>
-      </c>
-      <c r="G11">
         <v>4</v>
       </c>
     </row>
@@ -615,7 +582,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Experiments/Experiments.xlsx
+++ b/Experiments/Experiments.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="500" windowWidth="23820" windowHeight="15620" tabRatio="500" activeTab="2"/>
+    <workbookView minimized="1" xWindow="10020" yWindow="460" windowWidth="12380" windowHeight="15620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Same domainEx" sheetId="2" r:id="rId2"/>
     <sheet name="Distance experiment" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>ML experiments</t>
   </si>
@@ -52,15 +53,9 @@
     <t>Result</t>
   </si>
   <si>
-    <t xml:space="preserve">Result with same domain: </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Result without same domain: </t>
-  </si>
-  <si>
     <t>Distance</t>
   </si>
   <si>
@@ -98,13 +93,191 @@
   </si>
   <si>
     <t>Hit</t>
+  </si>
+  <si>
+    <t>Result with beta = 1,4</t>
+  </si>
+  <si>
+    <t>Result with beta = 1,6</t>
+  </si>
+  <si>
+    <t>Result with beta = 1,7</t>
+  </si>
+  <si>
+    <t>Result with beta = 1,8</t>
+  </si>
+  <si>
+    <t>Result with beta = 1,9</t>
+  </si>
+  <si>
+    <t>Result with beta = 2,1</t>
+  </si>
+  <si>
+    <t>Result with beta = 2,2</t>
+  </si>
+  <si>
+    <t>Result with beta = 2,3</t>
+  </si>
+  <si>
+    <t>Result with beta = 2,4</t>
+  </si>
+  <si>
+    <t>Result with beta = 2,5</t>
+  </si>
+  <si>
+    <t>Result with beta = 2,6</t>
+  </si>
+  <si>
+    <t>Result with beta = 2,7</t>
+  </si>
+  <si>
+    <t>Result with beta = 2,8</t>
+  </si>
+  <si>
+    <t>Result with beta = 2,9</t>
+  </si>
+  <si>
+    <t>Result with beta = 3</t>
+  </si>
+  <si>
+    <t>Result with beta = 3,1</t>
+  </si>
+  <si>
+    <t>Result with beta = 3,2</t>
+  </si>
+  <si>
+    <t>Result with beta = 3,3</t>
+  </si>
+  <si>
+    <t>Result with beta = 3,4</t>
+  </si>
+  <si>
+    <t>Result with beta = 3,5</t>
+  </si>
+  <si>
+    <t>Result with beta = 3,6</t>
+  </si>
+  <si>
+    <t>Result with beta = 3,7</t>
+  </si>
+  <si>
+    <t>Result with beta = 3,8</t>
+  </si>
+  <si>
+    <t>Result with beta = 3,9</t>
+  </si>
+  <si>
+    <t>Result with beta = 4</t>
+  </si>
+  <si>
+    <t>Result with beta = 5</t>
+  </si>
+  <si>
+    <t>Result with beta = 6</t>
+  </si>
+  <si>
+    <t>Result with beta = 10</t>
+  </si>
+  <si>
+    <t>Result with beta = 0</t>
+  </si>
+  <si>
+    <t>Result with beta = 0,1</t>
+  </si>
+  <si>
+    <t>Result with beta = 0,2</t>
+  </si>
+  <si>
+    <t>Result with beta = 0,3</t>
+  </si>
+  <si>
+    <t>Result with beta = 0,4</t>
+  </si>
+  <si>
+    <t>Result with beta = 0,5</t>
+  </si>
+  <si>
+    <t>Result with beta = 0,6</t>
+  </si>
+  <si>
+    <t>Result with beta = 0,7</t>
+  </si>
+  <si>
+    <t>Result with beta = 0,8</t>
+  </si>
+  <si>
+    <t>Result with beta = 0,9</t>
+  </si>
+  <si>
+    <t>Hit %</t>
+  </si>
+  <si>
+    <t>Result with same domain: 0</t>
+  </si>
+  <si>
+    <t>Result without same domain</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>Hits</t>
+  </si>
+  <si>
+    <t>Total nb pages</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>u3</t>
+  </si>
+  <si>
+    <t>u4</t>
+  </si>
+  <si>
+    <t>u6</t>
+  </si>
+  <si>
+    <t>u7</t>
+  </si>
+  <si>
+    <t>u9</t>
+  </si>
+  <si>
+    <t>u20</t>
+  </si>
+  <si>
+    <t>u19</t>
+  </si>
+  <si>
+    <t>u15</t>
+  </si>
+  <si>
+    <t>u27</t>
+  </si>
+  <si>
+    <t>u24</t>
+  </si>
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>u23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,12 +294,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,15 +317,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -471,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,56 +668,14 @@
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>51</v>
-      </c>
-      <c r="E5">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>51</v>
-      </c>
-      <c r="E6">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -541,35 +684,995 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2.71</v>
+      </c>
+      <c r="E10">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5">
+        <f>C10/E10</f>
+        <v>0.13725490196078433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>51</v>
-      </c>
-      <c r="E10">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="D11">
+        <v>3.25</v>
+      </c>
+      <c r="E11">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11:F63" si="0">C11/E11</f>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>3.25</v>
+      </c>
+      <c r="E12">
+        <v>51</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>0.3</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>3.25</v>
+      </c>
+      <c r="E13">
+        <v>51</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>3.25</v>
+      </c>
+      <c r="E14">
+        <v>51</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>3.25</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.6</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>3.25</v>
+      </c>
+      <c r="E16">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.7</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>3.25</v>
+      </c>
+      <c r="E17">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.8</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>3.25</v>
+      </c>
+      <c r="E18">
+        <v>51</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0.9</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>3.25</v>
+      </c>
+      <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>3.25</v>
+      </c>
+      <c r="E20">
+        <v>51</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>B20+0.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>3.25</v>
+      </c>
+      <c r="E21">
+        <v>51</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f t="shared" ref="B22:B60" si="1">B21+0.1</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>3.25</v>
+      </c>
+      <c r="E22">
+        <v>51</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>3.25</v>
+      </c>
+      <c r="E23">
+        <v>51</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>3.25</v>
+      </c>
+      <c r="E24">
+        <v>51</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>3.25</v>
+      </c>
+      <c r="E25">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>3.25</v>
+      </c>
+      <c r="E26">
+        <v>51</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>3.25</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>3.25</v>
+      </c>
+      <c r="E28">
+        <v>51</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000008</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>3.25</v>
+      </c>
+      <c r="E29">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>3.25</v>
+      </c>
+      <c r="E30">
+        <v>51</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>3.25</v>
+      </c>
+      <c r="E31">
+        <v>51</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000011</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>3.25</v>
+      </c>
+      <c r="E32">
+        <v>51</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>2.3000000000000012</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>3.25</v>
+      </c>
+      <c r="E33">
+        <v>51</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000012</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E34">
+        <v>51</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000013</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E35">
+        <v>51</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>2.6000000000000014</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E36">
+        <v>51</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000015</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E37">
+        <v>51</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000016</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E38">
+        <v>51</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000017</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E39">
+        <v>51</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000018</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E40">
+        <v>51</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>3.1000000000000019</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E41">
+        <v>51</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>3.200000000000002</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E42">
+        <v>51</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>3.300000000000002</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E43">
+        <v>51</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000021</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E44">
+        <v>51</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000022</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E45">
+        <v>51</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000023</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000024</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E47">
+        <v>51</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000025</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E48">
+        <v>51</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000026</v>
+      </c>
+      <c r="C49">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>51</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
+      <c r="D49">
+        <v>4.7</v>
+      </c>
+      <c r="E49">
+        <v>51</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19607843137254902</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000027</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E50">
+        <v>51</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>4.1000000000000023</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E51">
+        <v>51</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>4.200000000000002</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000016</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E54">
+        <v>51</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>4.5000000000000009</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E55">
+        <v>51</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E56">
+        <v>51</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E57">
+        <v>51</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E58">
+        <v>51</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E59">
+        <v>51</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>4.7</v>
+      </c>
+      <c r="E60">
+        <v>51</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19607843137254902</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E63">
+        <v>51</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
       </c>
     </row>
   </sheetData>
@@ -579,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,248 +1694,1230 @@
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C9" s="2">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>51</v>
+      </c>
+      <c r="F16" s="4">
+        <f>C16/E16</f>
+        <v>0.21568627450980393</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>1.7</v>
+      </c>
+      <c r="E17">
+        <v>51</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ref="F17:F59" si="0">C17/E17</f>
+        <v>0.25490196078431371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>2.08</v>
+      </c>
+      <c r="E18">
+        <v>51</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25490196078431371</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1.17</v>
+      </c>
+      <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>2.17</v>
+      </c>
+      <c r="E20">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>2.27</v>
+      </c>
+      <c r="E21">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21568627450980393</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>2.27</v>
+      </c>
+      <c r="E22">
+        <v>51</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21568627450980393</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>2.27</v>
+      </c>
+      <c r="E23">
+        <v>51</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21568627450980393</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E24">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21568627450980393</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>2.44</v>
+      </c>
+      <c r="E25">
+        <v>51</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>2.44</v>
+      </c>
+      <c r="E26">
+        <v>51</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2.71</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13725490196078433</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>2.71</v>
+      </c>
+      <c r="E28">
+        <v>51</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13725490196078433</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>51</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>51</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>3.4</v>
+      </c>
+      <c r="E31">
+        <v>51</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>9.8039215686274508E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>51</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>51</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>51</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>51</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>51</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>51</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>51</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>51</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>51</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>51</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>51</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>51</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>51</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>51</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>51</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>51</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>51</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>51</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>51</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1.33</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1.33</v>
+      </c>
+      <c r="E54">
+        <v>51</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1.33</v>
+      </c>
+      <c r="E55">
+        <v>51</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1.33</v>
+      </c>
+      <c r="E56">
+        <v>51</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>51</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>51</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>3.25</v>
+      </c>
+      <c r="E59">
+        <v>51</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
       <c r="E4">
+        <v>56</v>
+      </c>
+      <c r="F4" s="5">
+        <f>C4/E4</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F15" si="0">C5/E5</f>
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1.22</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>11.93</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74736842105263157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>6.24</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>8.5</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>3.1</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65625</v>
+      </c>
+      <c r="H10" s="4">
+        <f>AVERAGE(F4:F13)</f>
+        <v>0.38860464974145503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>2.21</v>
+      </c>
+      <c r="E12">
+        <v>57</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
+      <c r="E13">
         <v>53</v>
       </c>
-      <c r="G5">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>53</v>
-      </c>
-      <c r="G6">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20754716981132076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>76</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
         <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>53</v>
-      </c>
-      <c r="G16">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>53</v>
-      </c>
-      <c r="G17">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <f>C16/E16</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>53</v>
-      </c>
-      <c r="G18">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>53</v>
-      </c>
-      <c r="G19">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
+        <f>AVERAGE(D4:D13)</f>
+        <v>4.4590000000000005</v>
       </c>
     </row>
   </sheetData>
